--- a/nriss-patch-1/ig/StructureDefinition-ror-organization-level-recours-orsan.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-ror-organization-level-recours-orsan.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:02:51+00:00</t>
+    <t>2024-03-12T16:14:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
